--- a/public/imports/Clients_template.xlsx
+++ b/public/imports/Clients_template.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
+    <sheet name="Client_Services" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -65,43 +66,29 @@
     <t>comment</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>vvv</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com</t>
-  </si>
-  <si>
-    <t>kjj</t>
-  </si>
-  <si>
     <t>other_person_phone</t>
+  </si>
+  <si>
+    <t>service_id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>next_action</t>
+  </si>
+  <si>
+    <t>next_action_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,34 +111,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -261,58 +300,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -367,23 +355,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N1048570" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N1048570"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N1048569" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:N1048569"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="name" dataDxfId="2"/>
-    <tableColumn id="2" name="phone" dataDxfId="0"/>
-    <tableColumn id="3" name="industry_id" dataDxfId="1"/>
-    <tableColumn id="4" name="company_name" dataDxfId="13"/>
-    <tableColumn id="5" name="city_id" dataDxfId="12"/>
-    <tableColumn id="6" name="other_person_name" dataDxfId="5"/>
-    <tableColumn id="15" name="other_person_phone" dataDxfId="3"/>
-    <tableColumn id="7" name="other_person_position" dataDxfId="4"/>
-    <tableColumn id="8" name="facebook_url" dataDxfId="11"/>
-    <tableColumn id="9" name="source_id" dataDxfId="10"/>
-    <tableColumn id="10" name="assigned_to" dataDxfId="9"/>
-    <tableColumn id="11" name="status" dataDxfId="8"/>
-    <tableColumn id="12" name="reason_id" dataDxfId="7"/>
-    <tableColumn id="13" name="comment" dataDxfId="6"/>
+    <tableColumn id="1" name="name" dataDxfId="14"/>
+    <tableColumn id="2" name="phone" dataDxfId="13"/>
+    <tableColumn id="3" name="industry_id" dataDxfId="12"/>
+    <tableColumn id="4" name="company_name" dataDxfId="11"/>
+    <tableColumn id="5" name="city_id" dataDxfId="10"/>
+    <tableColumn id="6" name="other_person_name" dataDxfId="9"/>
+    <tableColumn id="15" name="other_person_phone" dataDxfId="8"/>
+    <tableColumn id="7" name="other_person_position" dataDxfId="7"/>
+    <tableColumn id="8" name="facebook_url" dataDxfId="6"/>
+    <tableColumn id="9" name="source_id" dataDxfId="5"/>
+    <tableColumn id="10" name="assigned_to" dataDxfId="4"/>
+    <tableColumn id="11" name="status" dataDxfId="3"/>
+    <tableColumn id="12" name="reason_id" dataDxfId="2"/>
+    <tableColumn id="13" name="comment" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048571" totalsRowShown="0">
+  <autoFilter ref="A1:F1048571"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="phone"/>
+    <tableColumn id="2" name="service_id"/>
+    <tableColumn id="3" name="price" dataDxfId="0"/>
+    <tableColumn id="4" name="next_action"/>
+    <tableColumn id="5" name="next_action_date"/>
+    <tableColumn id="6" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,21 +655,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
@@ -680,7 +683,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -695,8 +698,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -720,58 +723,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2355455</v>
-      </c>
-      <c r="C2" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3">
-        <v>1015885554</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>